--- a/testdata/placeholder.xlsx
+++ b/testdata/placeholder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15300"/>
+    <workbookView windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="普通和安全开发" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>产品服务联系人姓名</t>
   </si>
   <si>
-    <t>{{ContactName}}</t>
+    <t>{{ContactName}}先生</t>
   </si>
   <si>
     <t>联系方式</t>
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -142,9 +142,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="19"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -158,26 +190,46 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -191,59 +243,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="19"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -263,6 +263,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="54"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,85 +293,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="24"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +522,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
+      <bottom style="double">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -536,176 +562,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="48"/>
-      </top>
-      <bottom style="double">
-        <color indexed="48"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
